--- a/data/trans_bre/P24_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>264,82%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>264,72%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>73,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>173,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.94371724509753</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.08667894503955</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.599679674946618</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.30867181416693</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.069882715433887</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.05406503031808</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7973864759441777</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.78328042273283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 27,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 31,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 24,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 47,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-22,49; 1724,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-48,58; 613,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 754,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.606751476473503</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.959886652251865</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.249192655779261</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.018863040731865</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1335753199572535</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2290344622114862</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4797027978532316</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1338363347938731</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.96761111033901</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>34.21000010086776</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>27.39031722946707</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>46.29505717505842</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>20.46424219087169</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>6.290327307426883</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>8.080096178953553</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,04</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>134,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>191,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>172,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>114,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 10,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 12,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 10,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 17,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 660,95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 554,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 717,84</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 279,15</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.98185168683031</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.887995294164749</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.52286318295895</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.00998017199789</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.474650258110649</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.14795951902181</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.685200584296648</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.126741298929997</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>222,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,4%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>66,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.6742417070070044</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.472872967510877</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9319952488310981</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.524560703442232</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.02614034138573664</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2428823796489493</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06220513438844659</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1238478815243668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 9,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 5,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 6,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 14,56</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 1301,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-61,95; 400,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-57,36; 259,19</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,48; 257,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.831021968406079</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.48748907309012</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.5723086457072</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.40554431150953</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.032963022924076</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.319400389897975</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.18696610340858</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.755722086489101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +825,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.29232479699025</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.685276814235923</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.200403434798725</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.146652696739532</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.768638577028697</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4436781524903146</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.260248011493858</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6451204049949255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.352410442254069</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.479816075649801</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.761129567237977</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.851891147440609</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.04178086714519642</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.606564033305971</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5711111144794641</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.195931275785514</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.55678376955329</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.07055601549573</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.247448501597981</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.84800362163483</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>15.89419265867746</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.353363115339334</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.767009772174265</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.593237797737597</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>181,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>140,56%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>87,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>116,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 10,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 9,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 8,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 19,49</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>47,24; 501,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26,25; 349,56</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 238,71</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>36,84; 239,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.554422037714786</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.401831359591958</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.472837918671325</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.74801587041306</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.137231625872304</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.647718243818487</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9351436740370849</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.178054038293031</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.213033547410735</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.704107756458136</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.8214876286125969</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.119800365161837</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.626379038993471</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4280330997908066</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.08300806508507577</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3366627469064301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.46177043852035</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.75855692440769</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.42162706297235</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.13731996213079</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.726966974934578</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.985807069326023</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.603013249714271</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.347070207508918</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
